--- a/CEEN562_HW2.xlsx
+++ b/CEEN562_HW2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarnes7\Documents\HW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbarnes/Documents/GitHub/ceen562/ceen_562/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9687A-88BD-4251-BAA3-3B7A21AE59DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D8E84D-7046-E742-AF2E-623FE25A9A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24825" windowHeight="9330" activeTab="1" xr2:uid="{2B59BAFD-BA54-44B3-BEA3-451D0C810E85}"/>
+    <workbookView xWindow="15200" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2B59BAFD-BA54-44B3-BEA3-451D0C810E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 10-1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="104">
   <si>
     <t>````````````````````````````````````````</t>
   </si>
@@ -198,16 +206,158 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>Veh Observed</t>
+  </si>
+  <si>
+    <t>Middle Speed</t>
+  </si>
+  <si>
+    <t>% Freq in group</t>
+  </si>
+  <si>
+    <t>Cum % Freq</t>
+  </si>
+  <si>
+    <t>nS</t>
+  </si>
+  <si>
+    <t>nS^2</t>
+  </si>
+  <si>
+    <t>Total =</t>
+  </si>
+  <si>
+    <t>A)</t>
+  </si>
+  <si>
+    <t>Speed Low</t>
+  </si>
+  <si>
+    <t>Speed High</t>
+  </si>
+  <si>
+    <t>Median Speed</t>
+  </si>
+  <si>
+    <t>Modal Speed</t>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>% vehicles in pace</t>
+  </si>
+  <si>
+    <t>37-47 mph</t>
+  </si>
+  <si>
+    <t>(see graph)</t>
+  </si>
+  <si>
+    <t>41 mph</t>
+  </si>
+  <si>
+    <t>42 mph</t>
+  </si>
+  <si>
+    <t>B)</t>
+  </si>
+  <si>
+    <t>C)</t>
+  </si>
+  <si>
+    <t>Mean Speed (mi/h)</t>
+  </si>
+  <si>
+    <t>Standard Deviation (mi/h)</t>
+  </si>
+  <si>
+    <t>D)</t>
+  </si>
+  <si>
+    <t>SE of Mean E</t>
+  </si>
+  <si>
+    <t>95% Confidence mu</t>
+  </si>
+  <si>
+    <t>99.7% Confidence mu</t>
+  </si>
+  <si>
+    <t>E)</t>
+  </si>
+  <si>
+    <t>No. of Samples</t>
+  </si>
+  <si>
+    <t>Eq 11-10 (pg199)</t>
+  </si>
+  <si>
+    <t>F)</t>
+  </si>
+  <si>
+    <t>From the chi-square analysis, we can see that the reults confirm normal distribution</t>
+  </si>
+  <si>
+    <t>Speed Group</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Prob z&lt;= zd</t>
+  </si>
+  <si>
+    <t>Upper Limit on STD Normal zd</t>
+  </si>
+  <si>
+    <t>Observed Frequency n</t>
+  </si>
+  <si>
+    <t>Prob of Occurrence in Group</t>
+  </si>
+  <si>
+    <t>Theoretical Freq f</t>
+  </si>
+  <si>
+    <t>Combined Group n</t>
+  </si>
+  <si>
+    <t>Combined Group f</t>
+  </si>
+  <si>
+    <t>Chi-Square Group X^2</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Chi^2 Value</t>
+  </si>
+  <si>
+    <t>P=</t>
+  </si>
+  <si>
+    <t>df = 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +379,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -244,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -267,25 +435,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,22 +468,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,12 +488,82 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +580,2544 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Problem 11-1'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Problem 11-1'!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3668639053254437E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3254437869822487E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10650887573964497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20710059171597633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24852071005917159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1893491124260355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11834319526627218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3254437869822487E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B44-B24A-8FD3-CC46A3C659E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1881587647"/>
+        <c:axId val="1882668095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1881587647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882668095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1882668095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881587647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative Frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Problem 11-1'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Problem 11-1'!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3668639053254437E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18343195266272189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39053254437869822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63905325443786976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82840236686390523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94674556213017746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A693-0842-9570-D56FAABB63E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1881587647"/>
+        <c:axId val="1882668095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1881587647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882668095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1882668095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1881587647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2914979F-2073-6643-9A67-156111EA833C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3767BB7-F3DA-F143-B559-8DB62BA3C415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88195</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE84300-CB73-764C-AD28-C2985B5B29DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11138958" y="1067153"/>
+          <a:ext cx="8820" cy="1658055"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291042</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55650C8B-6791-4745-A496-EBB7DABA8013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10777361" y="1419931"/>
+          <a:ext cx="573264" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>379236</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388055</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C13851B-5984-AB4A-819F-1977457AC208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10768542" y="1428750"/>
+          <a:ext cx="8819" cy="3704167"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>299861</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335139</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D068A3F-85C4-FB45-AFEB-8F1550BDEE8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11359444" y="1419931"/>
+          <a:ext cx="35278" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537986</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537986</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF82DE7-CEC4-7A4A-92DA-A50EE811CE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7346597" y="3510139"/>
+          <a:ext cx="0" cy="899583"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599722</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388055</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD5A155-3FA0-1F4B-BCF2-AAAAD7ED4B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8978194" y="5159375"/>
+          <a:ext cx="1799167" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299861</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176389</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF779FA7-EE1D-BD40-BC2F-D5BBE75B29AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9348611" y="3871736"/>
+          <a:ext cx="546806" cy="282222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>81%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97014</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67EA095D-F7D4-D747-8626-96745F9B1BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9145764" y="4780139"/>
+          <a:ext cx="485069" cy="291042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>35%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13785</cdr:x>
+      <cdr:y>0.70238</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52423</cdr:x>
+      <cdr:y>0.70553</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C13851B-5984-AB4A-819F-1977457AC208}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="626181" y="1961446"/>
+          <a:ext cx="1755070" cy="8819"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12815</cdr:x>
+      <cdr:y>0.38656</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65626</cdr:x>
+      <cdr:y>0.38972</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C13851B-5984-AB4A-819F-1977457AC208}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="582084" y="1079501"/>
+          <a:ext cx="2398889" cy="8820"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,21 +3423,21 @@
       <selection activeCell="BC33" sqref="BC33:BC35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.85546875" customWidth="1"/>
-    <col min="56" max="56" width="12.28515625" customWidth="1"/>
-    <col min="57" max="57" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5703125" customWidth="1"/>
-    <col min="59" max="59" width="12.85546875" customWidth="1"/>
-    <col min="60" max="60" width="10.7109375" customWidth="1"/>
-    <col min="61" max="61" width="12.7109375" customWidth="1"/>
-    <col min="62" max="62" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.83203125" customWidth="1"/>
+    <col min="56" max="56" width="12.33203125" customWidth="1"/>
+    <col min="57" max="57" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5" customWidth="1"/>
+    <col min="59" max="59" width="12.83203125" customWidth="1"/>
+    <col min="60" max="60" width="10.6640625" customWidth="1"/>
+    <col min="61" max="61" width="12.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -678,412 +3448,412 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA3" s="3" t="s">
+    <row r="3" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BF3" s="3" t="s">
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BF3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-    </row>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="5" t="s">
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+    </row>
+    <row r="4" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BC4" s="5" t="s">
+      <c r="BC4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BD4" s="5" t="s">
+      <c r="BD4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="5" t="s">
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BH4" s="5" t="s">
+      <c r="BH4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BI4" s="5" t="s">
+      <c r="BI4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA5" s="5" t="s">
+    <row r="5" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BB5" s="1">
         <v>3000</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BC5" s="1">
         <v>2800</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" s="1">
         <v>4100</v>
       </c>
-      <c r="BF5" s="5" t="s">
+      <c r="BF5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BG5" s="10">
+      <c r="BG5" s="6">
         <f>BB5*(4/3.75)</f>
         <v>3200</v>
       </c>
-      <c r="BH5" s="10">
+      <c r="BH5" s="6">
         <f t="shared" ref="BH5:BI5" si="0">BC5*(4/3.75)</f>
         <v>2986.6666666666665</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BI5" s="6">
         <f t="shared" si="0"/>
         <v>4373.333333333333</v>
       </c>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA6" s="5" t="s">
+    <row r="6" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BB6" s="5">
+      <c r="BB6" s="1">
         <v>3300</v>
       </c>
-      <c r="BC6" s="5">
+      <c r="BC6" s="1">
         <v>3000</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BD6" s="1">
         <v>4400</v>
       </c>
-      <c r="BF6" s="5" t="s">
+      <c r="BF6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BG6" s="10">
+      <c r="BG6" s="6">
         <f t="shared" ref="BG6:BG7" si="1">BB6*(4/3.75)</f>
         <v>3520</v>
       </c>
-      <c r="BH6" s="10">
+      <c r="BH6" s="6">
         <f>BC6*(4/3.75)</f>
         <v>3200</v>
       </c>
-      <c r="BI6" s="10">
+      <c r="BI6" s="6">
         <f t="shared" ref="BI6:BI7" si="2">BD6*(4/3.75)</f>
         <v>4693.333333333333</v>
       </c>
     </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA7" s="5" t="s">
+    <row r="7" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="BB7" s="1">
         <v>4000</v>
       </c>
-      <c r="BC7" s="5">
+      <c r="BC7" s="1">
         <v>3600</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BD7" s="1">
         <v>5000</v>
       </c>
-      <c r="BF7" s="5" t="s">
+      <c r="BF7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BG7" s="10">
+      <c r="BG7" s="6">
         <f t="shared" si="1"/>
         <v>4266.666666666667</v>
       </c>
-      <c r="BH7" s="10">
-        <f t="shared" ref="BH6:BH7" si="3">BC7*(4/3.75)</f>
+      <c r="BH7" s="6">
+        <f t="shared" ref="BH7" si="3">BC7*(4/3.75)</f>
         <v>3840</v>
       </c>
-      <c r="BI7" s="10">
+      <c r="BI7" s="6">
         <f t="shared" si="2"/>
         <v>5333.333333333333</v>
       </c>
     </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="9" t="s">
+    <row r="9" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BF9" s="9" t="s">
+      <c r="BF9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA10" s="6" t="s">
+    <row r="10" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BB10" s="5" t="s">
+      <c r="BB10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BC10" s="5" t="s">
+      <c r="BC10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BD10" s="5" t="s">
+      <c r="BD10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BF10" s="6" t="s">
+      <c r="BF10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BG10" s="5" t="s">
+      <c r="BG10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BH10" s="5" t="s">
+      <c r="BH10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BI10" s="5" t="s">
+      <c r="BI10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA11" s="5">
+    <row r="11" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA11" s="1">
         <v>1</v>
       </c>
-      <c r="BB11" s="5" t="s">
+      <c r="BB11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BC11" s="5" t="s">
+      <c r="BC11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BD11" s="1">
         <v>1900</v>
       </c>
-      <c r="BF11" s="5">
+      <c r="BF11" s="1">
         <v>1</v>
       </c>
-      <c r="BG11" s="5" t="s">
+      <c r="BG11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BH11" s="5" t="s">
+      <c r="BH11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BI11" s="10">
+      <c r="BI11" s="6">
         <f>BD11*(4/3.75)</f>
         <v>2026.6666666666667</v>
       </c>
     </row>
-    <row r="12" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA12" s="5">
+    <row r="12" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA12" s="1">
         <v>2</v>
       </c>
-      <c r="BB12" s="5" t="s">
+      <c r="BB12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BC12" s="5" t="s">
+      <c r="BC12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BD12" s="1">
         <v>2600</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BF12" s="1">
         <v>2</v>
       </c>
-      <c r="BG12" s="5" t="s">
+      <c r="BG12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BH12" s="5" t="s">
+      <c r="BH12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BI12" s="10">
+      <c r="BI12" s="6">
         <f t="shared" ref="BI12:BI19" si="4">BD12*(4/3.75)</f>
         <v>2773.3333333333335</v>
       </c>
     </row>
-    <row r="13" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA13" s="5">
+    <row r="13" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA13" s="1">
         <v>3</v>
       </c>
-      <c r="BB13" s="5" t="s">
+      <c r="BB13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BC13" s="5" t="s">
+      <c r="BC13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BD13" s="1">
         <v>1500</v>
       </c>
-      <c r="BF13" s="5">
+      <c r="BF13" s="1">
         <v>3</v>
       </c>
-      <c r="BG13" s="5" t="s">
+      <c r="BG13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BH13" s="5" t="s">
+      <c r="BH13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BI13" s="10">
+      <c r="BI13" s="6">
         <f t="shared" si="4"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="14" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA14" s="5">
+    <row r="14" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA14" s="1">
         <v>4</v>
       </c>
-      <c r="BB14" s="5" t="s">
+      <c r="BB14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BC14" s="5" t="s">
+      <c r="BC14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BD14" s="1">
         <v>3000</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BF14" s="1">
         <v>4</v>
       </c>
-      <c r="BG14" s="5" t="s">
+      <c r="BG14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BH14" s="5" t="s">
+      <c r="BH14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BI14" s="10">
+      <c r="BI14" s="6">
         <f t="shared" si="4"/>
         <v>3200</v>
       </c>
     </row>
-    <row r="15" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA15" s="5">
+    <row r="15" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA15" s="1">
         <v>5</v>
       </c>
-      <c r="BB15" s="5" t="s">
+      <c r="BB15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BC15" s="5" t="s">
+      <c r="BC15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BD15" s="5">
+      <c r="BD15" s="1">
         <v>3600</v>
       </c>
-      <c r="BF15" s="5">
+      <c r="BF15" s="1">
         <v>5</v>
       </c>
-      <c r="BG15" s="5" t="s">
+      <c r="BG15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BH15" s="5" t="s">
+      <c r="BH15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BI15" s="10">
+      <c r="BI15" s="6">
         <f t="shared" si="4"/>
         <v>3840</v>
       </c>
     </row>
-    <row r="16" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="BA16" s="5">
+    <row r="16" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="BA16" s="1">
         <v>6</v>
       </c>
-      <c r="BB16" s="5" t="s">
+      <c r="BB16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BC16" s="5" t="s">
+      <c r="BC16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BD16" s="5">
+      <c r="BD16" s="1">
         <v>4800</v>
       </c>
-      <c r="BF16" s="5">
+      <c r="BF16" s="1">
         <v>6</v>
       </c>
-      <c r="BG16" s="5" t="s">
+      <c r="BG16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BH16" s="5" t="s">
+      <c r="BH16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BI16" s="10">
+      <c r="BI16" s="6">
         <f t="shared" si="4"/>
         <v>5120</v>
       </c>
     </row>
-    <row r="17" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA17" s="5">
+    <row r="17" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA17" s="1">
         <v>7</v>
       </c>
-      <c r="BB17" s="5" t="s">
+      <c r="BB17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BC17" s="5" t="s">
+      <c r="BC17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BD17" s="5">
+      <c r="BD17" s="1">
         <v>3500</v>
       </c>
-      <c r="BF17" s="5">
+      <c r="BF17" s="1">
         <v>7</v>
       </c>
-      <c r="BG17" s="5" t="s">
+      <c r="BG17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BH17" s="5" t="s">
+      <c r="BH17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BI17" s="10">
+      <c r="BI17" s="6">
         <f t="shared" si="4"/>
         <v>3733.3333333333335</v>
       </c>
     </row>
-    <row r="18" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA18" s="5">
+    <row r="18" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA18" s="1">
         <v>8</v>
       </c>
-      <c r="BB18" s="5" t="s">
+      <c r="BB18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BC18" s="5" t="s">
+      <c r="BC18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BD18" s="5">
+      <c r="BD18" s="1">
         <v>3200</v>
       </c>
-      <c r="BF18" s="5">
+      <c r="BF18" s="1">
         <v>8</v>
       </c>
-      <c r="BG18" s="5" t="s">
+      <c r="BG18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BH18" s="5" t="s">
+      <c r="BH18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BI18" s="10">
+      <c r="BI18" s="6">
         <f t="shared" si="4"/>
         <v>3413.3333333333335</v>
       </c>
     </row>
-    <row r="19" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA19" s="5">
+    <row r="19" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA19" s="1">
         <v>9</v>
       </c>
-      <c r="BB19" s="5" t="s">
+      <c r="BB19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BC19" s="5" t="s">
+      <c r="BC19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BD19" s="5">
+      <c r="BD19" s="1">
         <v>4400</v>
       </c>
-      <c r="BF19" s="5">
+      <c r="BF19" s="1">
         <v>9</v>
       </c>
-      <c r="BG19" s="5" t="s">
+      <c r="BG19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BH19" s="5" t="s">
+      <c r="BH19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BI19" s="10">
+      <c r="BI19" s="6">
         <f t="shared" si="4"/>
         <v>4693.333333333333</v>
       </c>
     </row>
-    <row r="21" spans="53:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="53:63" x14ac:dyDescent="0.2">
       <c r="BA21" t="s">
         <v>14</v>
       </c>
@@ -1091,571 +3861,579 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA22" s="5" t="s">
+    <row r="22" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="BB22" s="6" t="s">
+      <c r="BB22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BC22" s="6" t="s">
+      <c r="BC22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BE22" s="3" t="s">
+      <c r="BE22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="BF22" s="4" t="s">
+      <c r="BF22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="12" t="s">
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BI22" s="12"/>
-      <c r="BJ22" s="4" t="s">
+      <c r="BI22" s="21"/>
+      <c r="BJ22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="BK22" s="4"/>
-    </row>
-    <row r="23" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA23" s="5" t="s">
+      <c r="BK22" s="20"/>
+    </row>
+    <row r="23" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BB23" s="5">
+      <c r="BB23" s="1">
         <v>1100</v>
       </c>
-      <c r="BC23" s="5">
+      <c r="BC23" s="1">
         <f>BB23*2</f>
         <v>2200</v>
       </c>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="7" t="s">
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BG23" s="7" t="s">
+      <c r="BG23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BH23" s="7" t="s">
+      <c r="BH23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BI23" s="7" t="s">
+      <c r="BI23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BJ23" s="7" t="s">
+      <c r="BJ23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BK23" s="7" t="s">
+      <c r="BK23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA24" s="5" t="s">
+    <row r="24" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BB24" s="5">
+      <c r="BB24" s="1">
         <v>130</v>
       </c>
-      <c r="BC24" s="5">
+      <c r="BC24" s="1">
         <f>BB24*3</f>
         <v>390</v>
       </c>
-      <c r="BE24" s="5" t="s">
+      <c r="BE24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BF24" s="13">
+      <c r="BF24" s="8">
         <f>BG5</f>
         <v>3200</v>
       </c>
-      <c r="BG24" s="14">
+      <c r="BG24" s="9">
         <f>BF24/SUM($BF$24:$BF$26)</f>
         <v>0.30303030303030304</v>
       </c>
-      <c r="BH24" s="13">
+      <c r="BH24" s="8">
         <f>BG6</f>
         <v>3520</v>
       </c>
-      <c r="BI24" s="14">
+      <c r="BI24" s="9">
         <f>BH24/SUM($BH$24:$BH$26)</f>
         <v>0.30841121495327106</v>
       </c>
-      <c r="BJ24" s="13">
+      <c r="BJ24" s="8">
         <f>BG7</f>
         <v>4266.666666666667</v>
       </c>
-      <c r="BK24" s="14">
+      <c r="BK24" s="9">
         <f>BJ24/SUM($BJ$24:$BJ$26)</f>
         <v>0.3174603174603175</v>
       </c>
     </row>
-    <row r="25" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA25" s="5" t="s">
+    <row r="25" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB25" s="5">
+      <c r="BB25" s="1">
         <v>40</v>
       </c>
-      <c r="BC25" s="5">
+      <c r="BC25" s="1">
         <f>BB25*4</f>
         <v>160</v>
       </c>
-      <c r="BE25" s="5" t="s">
+      <c r="BE25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BF25" s="13">
+      <c r="BF25" s="8">
         <f>BH5</f>
         <v>2986.6666666666665</v>
       </c>
-      <c r="BG25" s="14">
+      <c r="BG25" s="9">
         <f>BF25/SUM($BF$24:$BF$26)</f>
         <v>0.28282828282828282</v>
       </c>
-      <c r="BH25" s="13">
+      <c r="BH25" s="8">
         <f>BH6</f>
         <v>3200</v>
       </c>
-      <c r="BI25" s="14">
+      <c r="BI25" s="9">
         <f>BH25/SUM($BH$24:$BH$26)</f>
         <v>0.28037383177570097</v>
       </c>
-      <c r="BJ25" s="13">
+      <c r="BJ25" s="8">
         <f>BH7</f>
         <v>3840</v>
       </c>
-      <c r="BK25" s="14">
+      <c r="BK25" s="9">
         <f>BJ25/SUM($BJ$24:$BJ$26)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="26" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA26" s="5" t="s">
+    <row r="26" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BB26" s="5">
+      <c r="BB26" s="1">
         <v>6</v>
       </c>
-      <c r="BC26" s="5">
+      <c r="BC26" s="1">
         <f>BB26*5</f>
         <v>30</v>
       </c>
-      <c r="BE26" s="5" t="s">
+      <c r="BE26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BF26" s="13">
+      <c r="BF26" s="8">
         <f>BI5</f>
         <v>4373.333333333333</v>
       </c>
-      <c r="BG26" s="14">
+      <c r="BG26" s="9">
         <f>BF26/SUM($BF$24:$BF$26)</f>
         <v>0.41414141414141409</v>
       </c>
-      <c r="BH26" s="13">
+      <c r="BH26" s="8">
         <f>BI6</f>
         <v>4693.333333333333</v>
       </c>
-      <c r="BI26" s="14">
+      <c r="BI26" s="9">
         <f>BH26/SUM($BH$24:$BH$26)</f>
         <v>0.41121495327102803</v>
       </c>
-      <c r="BJ26" s="13">
+      <c r="BJ26" s="8">
         <f>BI7</f>
         <v>5333.333333333333</v>
       </c>
-      <c r="BK26" s="14">
+      <c r="BK26" s="9">
         <f>BJ26/SUM($BJ$24:$BJ$26)</f>
         <v>0.3968253968253968</v>
       </c>
     </row>
-    <row r="27" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA27" s="6" t="s">
+    <row r="27" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BB27" s="5">
+      <c r="BB27" s="1">
         <f>SUM(BB23:BB26)</f>
         <v>1276</v>
       </c>
-      <c r="BC27" s="5">
+      <c r="BC27" s="1">
         <f>SUM(BC23:BC26)</f>
         <v>2780</v>
       </c>
-      <c r="BE27" s="6" t="s">
+      <c r="BE27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BF27" s="13">
+      <c r="BF27" s="8">
         <f>SUM(BF24:BF26)</f>
         <v>10560</v>
       </c>
-      <c r="BG27" s="15">
+      <c r="BG27" s="10">
         <f t="shared" ref="BG27:BK27" si="5">SUM(BG24:BG26)</f>
         <v>1</v>
       </c>
-      <c r="BH27" s="13">
+      <c r="BH27" s="8">
         <f t="shared" si="5"/>
         <v>11413.333333333332</v>
       </c>
-      <c r="BI27" s="15">
+      <c r="BI27" s="10">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="BJ27" s="13">
+      <c r="BJ27" s="8">
         <f t="shared" si="5"/>
         <v>13440</v>
       </c>
-      <c r="BK27" s="15">
+      <c r="BK27" s="10">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA28" s="6" t="s">
+    <row r="28" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BB28" s="19">
+      <c r="BB28" s="12">
         <f>BC27/BB27</f>
         <v>2.1786833855799372</v>
       </c>
-      <c r="BC28" s="7"/>
-    </row>
-    <row r="30" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA30" s="9" t="s">
+      <c r="BC28" s="3"/>
+    </row>
+    <row r="30" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BE30" s="20" t="s">
+      <c r="BE30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BF30" s="3" t="s">
+      <c r="BF30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BG30" s="3" t="s">
+      <c r="BG30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="BH30" s="18" t="s">
+      <c r="BH30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BI30" s="21" t="s">
+      <c r="BI30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="BJ30" s="21" t="s">
+      <c r="BJ30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="BK30" s="22" t="s">
+      <c r="BK30" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA31" s="3" t="s">
+    <row r="31" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="BB31" s="18" t="s">
+      <c r="BB31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="BC31" s="18" t="s">
+      <c r="BC31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BE31" s="20"/>
-      <c r="BF31" s="3"/>
-      <c r="BG31" s="3"/>
-      <c r="BH31" s="18"/>
-      <c r="BI31" s="21"/>
-      <c r="BJ31" s="21"/>
-      <c r="BK31" s="22"/>
-    </row>
-    <row r="32" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA32" s="3"/>
-      <c r="BB32" s="18"/>
-      <c r="BC32" s="18"/>
-      <c r="BE32" s="5">
+      <c r="BE31" s="19"/>
+      <c r="BF31" s="18"/>
+      <c r="BG31" s="18"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="16"/>
+      <c r="BJ31" s="16"/>
+      <c r="BK31" s="17"/>
+    </row>
+    <row r="32" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA32" s="18"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BE32" s="1">
         <v>1</v>
       </c>
-      <c r="BF32" s="5" t="s">
+      <c r="BF32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BG32" s="5" t="s">
+      <c r="BG32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BH32" s="10">
-        <f>BI11</f>
+      <c r="BH32" s="6">
+        <f t="shared" ref="BH32:BH40" si="6">BI11</f>
         <v>2026.6666666666667</v>
       </c>
-      <c r="BI32" s="10">
+      <c r="BI32" s="6">
         <f>BH32/BG24</f>
         <v>6688</v>
       </c>
-      <c r="BJ32" s="10">
+      <c r="BJ32" s="6">
         <f>BI32*$BC$33</f>
         <v>7476.1481481481469</v>
       </c>
-      <c r="BK32" s="23">
+      <c r="BK32" s="13">
         <f>BJ32/$BB$28</f>
         <v>3431.4982147615237</v>
       </c>
     </row>
-    <row r="33" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA33" s="5" t="s">
+    <row r="33" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BB33" s="10">
+      <c r="BB33" s="6">
         <f>BF27</f>
         <v>10560</v>
       </c>
-      <c r="BC33" s="24">
+      <c r="BC33" s="14">
         <f>$BB$37/BB33</f>
         <v>1.1178451178451176</v>
       </c>
-      <c r="BE33" s="5">
+      <c r="BE33" s="1">
         <v>2</v>
       </c>
-      <c r="BF33" s="5" t="s">
+      <c r="BF33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BG33" s="5" t="s">
+      <c r="BG33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BH33" s="10">
-        <f>BI12</f>
+      <c r="BH33" s="6">
+        <f t="shared" si="6"/>
         <v>2773.3333333333335</v>
       </c>
-      <c r="BI33" s="10">
+      <c r="BI33" s="6">
         <f>BH33/BG25</f>
         <v>9805.7142857142862</v>
       </c>
-      <c r="BJ33" s="10">
-        <f t="shared" ref="BJ33:BJ34" si="6">BI33*$BC$33</f>
+      <c r="BJ33" s="6">
+        <f t="shared" ref="BJ33:BJ34" si="7">BI33*$BC$33</f>
         <v>10961.269841269839</v>
       </c>
-      <c r="BK33" s="23">
-        <f t="shared" ref="BK33:BK40" si="7">BJ33/$BB$28</f>
+      <c r="BK33" s="13">
+        <f t="shared" ref="BK33:BK40" si="8">BJ33/$BB$28</f>
         <v>5031.1439990864446</v>
       </c>
     </row>
-    <row r="34" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA34" s="5" t="s">
+    <row r="34" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BB34" s="10">
+      <c r="BB34" s="6">
         <f>BH27</f>
         <v>11413.333333333332</v>
       </c>
-      <c r="BC34" s="24">
+      <c r="BC34" s="14">
         <f>$BB$37/BB34</f>
         <v>1.0342679127725858</v>
       </c>
-      <c r="BE34" s="5">
+      <c r="BE34" s="1">
         <v>3</v>
       </c>
-      <c r="BF34" s="5" t="s">
+      <c r="BF34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BG34" s="5" t="s">
+      <c r="BG34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BH34" s="10">
-        <f>BI13</f>
+      <c r="BH34" s="6">
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
-      <c r="BI34" s="10">
+      <c r="BI34" s="6">
         <f>BH34/BG26</f>
         <v>3863.414634146342</v>
       </c>
-      <c r="BJ34" s="10">
-        <f t="shared" si="6"/>
+      <c r="BJ34" s="6">
+        <f t="shared" si="7"/>
         <v>4318.6991869918693</v>
       </c>
-      <c r="BK34" s="23">
-        <f t="shared" si="7"/>
+      <c r="BK34" s="13">
+        <f t="shared" si="8"/>
         <v>1982.2518570509444</v>
       </c>
     </row>
-    <row r="35" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA35" s="5" t="s">
+    <row r="35" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BB35" s="10">
+      <c r="BB35" s="6">
         <f>BJ27</f>
         <v>13440</v>
       </c>
-      <c r="BC35" s="24">
+      <c r="BC35" s="14">
         <f>$BB$37/BB35</f>
         <v>0.87830687830687826</v>
       </c>
-      <c r="BE35" s="5">
+      <c r="BE35" s="1">
         <v>4</v>
       </c>
-      <c r="BF35" s="5" t="s">
+      <c r="BF35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BG35" s="5" t="s">
+      <c r="BG35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BH35" s="10">
-        <f>BI14</f>
+      <c r="BH35" s="6">
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
-      <c r="BI35" s="10">
+      <c r="BI35" s="6">
         <f>BH35/BI24</f>
         <v>10375.757575757574</v>
       </c>
-      <c r="BJ35" s="10">
+      <c r="BJ35" s="6">
         <f>BI35*$BC$34</f>
         <v>10731.313131313131</v>
       </c>
-      <c r="BK35" s="23">
-        <f t="shared" si="7"/>
+      <c r="BK35" s="13">
+        <f t="shared" si="8"/>
         <v>4925.5955235811352</v>
       </c>
     </row>
-    <row r="36" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA36" s="5" t="s">
+    <row r="36" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="BB36" s="10">
+      <c r="BB36" s="6">
         <f>SUM(BB33:BB35)</f>
         <v>35413.333333333328</v>
       </c>
-      <c r="BC36" s="5"/>
-      <c r="BE36" s="5">
+      <c r="BC36" s="1"/>
+      <c r="BE36" s="1">
         <v>5</v>
       </c>
-      <c r="BF36" s="5" t="s">
+      <c r="BF36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BG36" s="5" t="s">
+      <c r="BG36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BH36" s="10">
-        <f>BI15</f>
+      <c r="BH36" s="6">
+        <f t="shared" si="6"/>
         <v>3840</v>
       </c>
-      <c r="BI36" s="10">
-        <f t="shared" ref="BI36:BI37" si="8">BH36/BI25</f>
+      <c r="BI36" s="6">
+        <f t="shared" ref="BI36:BI37" si="9">BH36/BI25</f>
         <v>13695.999999999998</v>
       </c>
-      <c r="BJ36" s="10">
-        <f t="shared" ref="BJ36:BJ37" si="9">BI36*$BC$34</f>
+      <c r="BJ36" s="6">
+        <f t="shared" ref="BJ36:BJ37" si="10">BI36*$BC$34</f>
         <v>14165.333333333332</v>
       </c>
-      <c r="BK36" s="23">
-        <f t="shared" si="7"/>
+      <c r="BK36" s="13">
+        <f t="shared" si="8"/>
         <v>6501.7860911270982</v>
       </c>
     </row>
-    <row r="37" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BA37" s="5" t="s">
+    <row r="37" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BA37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BB37" s="10">
+      <c r="BB37" s="6">
         <f>AVERAGE(BB33:BB35)</f>
         <v>11804.444444444443</v>
       </c>
-      <c r="BC37" s="5"/>
-      <c r="BE37" s="5">
+      <c r="BC37" s="1"/>
+      <c r="BE37" s="1">
         <v>6</v>
       </c>
-      <c r="BF37" s="5" t="s">
+      <c r="BF37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BG37" s="5" t="s">
+      <c r="BG37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BH37" s="10">
-        <f>BI16</f>
+      <c r="BH37" s="6">
+        <f t="shared" si="6"/>
         <v>5120</v>
       </c>
-      <c r="BI37" s="10">
+      <c r="BI37" s="6">
+        <f t="shared" si="9"/>
+        <v>12450.909090909092</v>
+      </c>
+      <c r="BJ37" s="6">
+        <f t="shared" si="10"/>
+        <v>12877.57575757576</v>
+      </c>
+      <c r="BK37" s="13">
         <f t="shared" si="8"/>
-        <v>12450.909090909092</v>
-      </c>
-      <c r="BJ37" s="10">
-        <f t="shared" si="9"/>
-        <v>12877.57575757576</v>
-      </c>
-      <c r="BK37" s="23">
-        <f t="shared" si="7"/>
         <v>5910.7146282973636</v>
       </c>
     </row>
-    <row r="38" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BE38" s="5">
+    <row r="38" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BE38" s="1">
         <v>7</v>
       </c>
-      <c r="BF38" s="5" t="s">
+      <c r="BF38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BG38" s="5" t="s">
+      <c r="BG38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BH38" s="10">
-        <f>BI17</f>
+      <c r="BH38" s="6">
+        <f t="shared" si="6"/>
         <v>3733.3333333333335</v>
       </c>
-      <c r="BI38" s="10">
+      <c r="BI38" s="6">
         <f>BH38/BK24</f>
         <v>11759.999999999998</v>
       </c>
-      <c r="BJ38" s="10">
+      <c r="BJ38" s="6">
         <f>BI38*$BC$35</f>
         <v>10328.888888888887</v>
       </c>
-      <c r="BK38" s="23">
-        <f t="shared" si="7"/>
+      <c r="BK38" s="13">
+        <f t="shared" si="8"/>
         <v>4740.8856914468415</v>
       </c>
     </row>
-    <row r="39" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BE39" s="5">
+    <row r="39" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BE39" s="1">
         <v>8</v>
       </c>
-      <c r="BF39" s="5" t="s">
+      <c r="BF39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BG39" s="5" t="s">
+      <c r="BG39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BH39" s="10">
-        <f>BI18</f>
+      <c r="BH39" s="6">
+        <f t="shared" si="6"/>
         <v>3413.3333333333335</v>
       </c>
-      <c r="BI39" s="10">
-        <f t="shared" ref="BI39:BI40" si="10">BH39/BK25</f>
+      <c r="BI39" s="6">
+        <f t="shared" ref="BI39:BI40" si="11">BH39/BK25</f>
         <v>11946.666666666668</v>
       </c>
-      <c r="BJ39" s="10">
-        <f t="shared" ref="BJ39:BJ40" si="11">BI39*$BC$35</f>
+      <c r="BJ39" s="6">
+        <f t="shared" ref="BJ39:BJ40" si="12">BI39*$BC$35</f>
         <v>10492.839506172841</v>
       </c>
-      <c r="BK39" s="23">
-        <f t="shared" si="7"/>
+      <c r="BK39" s="13">
+        <f t="shared" si="8"/>
         <v>4816.1378452793324</v>
       </c>
     </row>
-    <row r="40" spans="53:63" x14ac:dyDescent="0.25">
-      <c r="BE40" s="5">
+    <row r="40" spans="53:63" x14ac:dyDescent="0.2">
+      <c r="BE40" s="1">
         <v>9</v>
       </c>
-      <c r="BF40" s="5" t="s">
+      <c r="BF40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BG40" s="5" t="s">
+      <c r="BG40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BH40" s="10">
-        <f>BI19</f>
+      <c r="BH40" s="6">
+        <f t="shared" si="6"/>
         <v>4693.333333333333</v>
       </c>
-      <c r="BI40" s="10">
-        <f t="shared" si="10"/>
+      <c r="BI40" s="6">
+        <f t="shared" si="11"/>
         <v>11827.2</v>
       </c>
-      <c r="BJ40" s="10">
-        <f t="shared" si="11"/>
+      <c r="BJ40" s="6">
+        <f t="shared" si="12"/>
         <v>10387.911111111111</v>
       </c>
-      <c r="BK40" s="23">
-        <f t="shared" si="7"/>
+      <c r="BK40" s="13">
+        <f t="shared" si="8"/>
         <v>4767.9764668265389</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="BJ22:BK22"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BF3:BF4"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="BF22:BG22"/>
+    <mergeCell ref="BH22:BI22"/>
     <mergeCell ref="BH30:BH31"/>
     <mergeCell ref="BI30:BI31"/>
     <mergeCell ref="BJ30:BJ31"/>
@@ -1666,14 +4444,6 @@
     <mergeCell ref="BE30:BE31"/>
     <mergeCell ref="BF30:BF31"/>
     <mergeCell ref="BG30:BG31"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BF3:BF4"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BF22:BG22"/>
-    <mergeCell ref="BH22:BI22"/>
-    <mergeCell ref="BJ22:BK22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1682,367 +4452,500 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703BC024-A9C5-4E60-83EC-81BA4E0D1ACC}">
-  <dimension ref="C2:J29"/>
+  <dimension ref="C2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C3" s="18"/>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2200</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>2250</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>2000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>1800</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1500</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>950</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1900</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>2080</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>2110</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1890</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>1750</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>1400</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>890</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1700</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1850</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>1900</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1710</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>1580</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1150</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2100</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>2270</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>2300</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>2050</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1800</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>1550</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1010</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <f>SUM(D4:D7)</f>
         <v>7700</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" ref="E8:J8" si="0">SUM(E4:E7)</f>
         <v>8400</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>8560</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>7650</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>6930</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>5600</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>3650</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <f>AVERAGE(D4:D7)</f>
         <v>1925</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <f t="shared" ref="E9:J9" si="1">AVERAGE(E4:E7)</f>
         <v>2100</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>2140</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>1912.5</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>1732.5</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <f t="shared" si="1"/>
         <v>912.5</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="14" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="D10" s="24">
+        <f>AVERAGE($D$9:$J$9)/D9</f>
+        <v>0.89962894248608527</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" ref="E10:J10" si="2">AVERAGE($D$9:$J$9)/E9</f>
+        <v>0.82465986394557822</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="2"/>
+        <v>0.80924566088117489</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="2"/>
+        <v>0.90550887021475257</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="2"/>
+        <v>0.99958771387342815</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="2"/>
+        <v>1.2369897959183673</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="2"/>
+        <v>1.8978473581213307</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="18"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="20">
         <v>2250</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="26">
+        <f>AVERAGE($D$16:$E$27)/D16</f>
+        <v>0.90370370370370368</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="20">
         <v>2200</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="26">
+        <f t="shared" ref="F17:F27" si="3">AVERAGE($D$16:$E$27)/D17</f>
+        <v>0.9242424242424242</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0166666666666666</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="20">
         <v>2100</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="26">
+        <f t="shared" si="3"/>
+        <v>0.96825396825396826</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="20">
         <v>1950</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0427350427350428</v>
+      </c>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="20">
         <v>1850</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="26">
+        <f t="shared" si="3"/>
+        <v>1.099099099099099</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="20">
         <v>1800</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="26">
+        <f t="shared" si="3"/>
+        <v>1.1296296296296295</v>
+      </c>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="20">
         <v>1700</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="26">
+        <f t="shared" si="3"/>
+        <v>1.196078431372549</v>
+      </c>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0166666666666666</v>
+      </c>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="20">
         <v>2100</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="26">
+        <f t="shared" si="3"/>
+        <v>0.96825396825396826</v>
+      </c>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="20">
         <v>2150</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="26">
+        <f t="shared" si="3"/>
+        <v>0.94573643410852715</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="20">
         <v>2300</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="26">
+        <f t="shared" si="3"/>
+        <v>0.88405797101449268</v>
+      </c>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="20">
         <f>SUM(D16:D27)</f>
         <v>24400</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="27">
         <f>AVERAGE(D16:D27)</f>
         <v>2033.3333333333333</v>
       </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="31">
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C14:C15"/>
@@ -2055,14 +4958,1560 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919C6B90-1015-45AC-BCFE-8FCA5A47D1C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:AX60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="T20" zoomScale="108" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="F5" s="9">
+        <f>D5/$D$15</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <f>F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <f>D5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f>D5*E5^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F14" si="0">D6/$D$15</f>
+        <v>2.3668639053254437E-2</v>
+      </c>
+      <c r="G6" s="32">
+        <f>SUM(F5:F6)</f>
+        <v>2.3668639053254437E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <f>D6*E6</f>
+        <v>90</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" ref="I6:I14" si="1">D6*E6^2</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3254437869822487E-2</v>
+      </c>
+      <c r="G7" s="32">
+        <f>SUM(F5:F7)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <f>E7*D7</f>
+        <v>247.5</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>6806.25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="20"/>
+      <c r="U7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10650887573964497</v>
+      </c>
+      <c r="G8" s="32">
+        <f>SUM(F5:F8)</f>
+        <v>0.18343195266272189</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" ref="H8:H14" si="2">E8*D8</f>
+        <v>585</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>19012.5</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" s="20"/>
+      <c r="U8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20710059171597633</v>
+      </c>
+      <c r="G9" s="32">
+        <f>SUM(F5:F9)</f>
+        <v>0.39053254437869822</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
+        <v>1312.5</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>49218.75</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="20"/>
+      <c r="U9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24852071005917159</v>
+      </c>
+      <c r="G10" s="32">
+        <f>SUM(F5:F10)</f>
+        <v>0.63905325443786976</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
+        <v>1785</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>75862.5</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="20"/>
+      <c r="U10" s="38">
+        <v>0.46</v>
+      </c>
+      <c r="V10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3">
+        <v>47.5</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1893491124260355</v>
+      </c>
+      <c r="G11" s="32">
+        <f>SUM(F5:F11)</f>
+        <v>0.82840236686390523</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>1520</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>72200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>52.5</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11834319526627218</v>
+      </c>
+      <c r="G12" s="32">
+        <f>SUM(F5:F12)</f>
+        <v>0.94674556213017746</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>55125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>57.5</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3254437869822487E-2</v>
+      </c>
+      <c r="G13" s="32">
+        <f>SUM(F5:F13)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>517.5</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>29756.25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="20"/>
+      <c r="U13" s="24">
+        <f>H15/D15</f>
+        <v>42.056213017751482</v>
+      </c>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>60</v>
+      </c>
+      <c r="C14" s="37">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <f>SUM(F5:F14)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="24">
+        <f>SQRT((I15-(D15*(U13^2)))/(D15-1))</f>
+        <v>8.1253996152025696</v>
+      </c>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C15" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="29">
+        <f>SUM(D5:D14)</f>
+        <v>169</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" ref="F15:I15" si="3">SUM(F5:F14)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="3"/>
+        <v>7107.5</v>
+      </c>
+      <c r="I15" s="31">
+        <f t="shared" si="3"/>
+        <v>310006.25</v>
+      </c>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" s="20"/>
+      <c r="U17" s="24">
+        <f>U14/SQRT(D15)</f>
+        <v>0.62503073963096689</v>
+      </c>
+      <c r="V17" s="24"/>
+    </row>
+    <row r="18" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18" s="20"/>
+      <c r="U18" s="24">
+        <f>U13-1.96*U17</f>
+        <v>40.831152768074787</v>
+      </c>
+      <c r="V18" s="24">
+        <f>U13+1.96*U17</f>
+        <v>43.281273267428176</v>
+      </c>
+    </row>
+    <row r="19" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="20"/>
+      <c r="U19" s="24">
+        <f>U13-3*U17</f>
+        <v>40.181120798858579</v>
+      </c>
+      <c r="V19" s="24">
+        <f>U13+3*U17</f>
+        <v>43.931305236644384</v>
+      </c>
+    </row>
+    <row r="22" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>83</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T22" s="21"/>
+      <c r="U22" s="23">
+        <f>(3.84*U14^2)/((0.8^2))</f>
+        <v>396.1327134404043</v>
+      </c>
+      <c r="V22" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="25" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="T27" s="20"/>
+      <c r="U27" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="V27" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y27" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA27" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB27" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AD28" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0.7107</v>
+      </c>
+    </row>
+    <row r="29" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>20</v>
+      </c>
+      <c r="T29" s="3">
+        <v>60</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="35">
+        <f>(S29-$U$13)/$U$14</f>
+        <v>-2.7144773257040122</v>
+      </c>
+      <c r="W29" s="40">
+        <f>_xlfn.NORM.S.DIST(V29,TRUE)</f>
+        <v>3.3190222154592772E-3</v>
+      </c>
+      <c r="X29" s="39">
+        <f>W29</f>
+        <v>3.3190222154592772E-3</v>
+      </c>
+      <c r="Y29" s="8">
+        <f>X29*$D$15</f>
+        <v>0.56091475441261784</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="3"/>
+      <c r="AD29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="3">
+        <f>AB39</f>
+        <v>0.78285834754989558</v>
+      </c>
+    </row>
+    <row r="30" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>25</v>
+      </c>
+      <c r="T30" s="3">
+        <v>55</v>
+      </c>
+      <c r="U30" s="1">
+        <v>4</v>
+      </c>
+      <c r="V30" s="35">
+        <f t="shared" ref="V30:V38" si="4">(S30-$U$13)/$U$14</f>
+        <v>-2.0991229755444172</v>
+      </c>
+      <c r="W30" s="40">
+        <f t="shared" ref="W30:W38" si="5">_xlfn.NORM.S.DIST(V30,TRUE)</f>
+        <v>1.7903030791495033E-2</v>
+      </c>
+      <c r="X30" s="39">
+        <f>W30-W29</f>
+        <v>1.4584008576035756E-2</v>
+      </c>
+      <c r="Y30" s="8">
+        <f t="shared" ref="Y30:Y38" si="6">X30*$D$15</f>
+        <v>2.4646974493500426</v>
+      </c>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="3"/>
+      <c r="AD30" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>1.0640000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>30</v>
+      </c>
+      <c r="T31" s="3">
+        <v>50</v>
+      </c>
+      <c r="U31" s="1">
+        <v>9</v>
+      </c>
+      <c r="V31" s="35">
+        <f t="shared" si="4"/>
+        <v>-1.4837686253848223</v>
+      </c>
+      <c r="W31" s="40">
+        <f t="shared" si="5"/>
+        <v>6.893515663003047E-2</v>
+      </c>
+      <c r="X31" s="39">
+        <f t="shared" ref="X31:X38" si="7">W31-W30</f>
+        <v>5.1032125838535433E-2</v>
+      </c>
+      <c r="Y31" s="8">
+        <f t="shared" si="6"/>
+        <v>8.6244292667124878</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>13</v>
+      </c>
+      <c r="AA31" s="8">
+        <f>SUM(Y29:Y31)</f>
+        <v>11.650041470475148</v>
+      </c>
+      <c r="AB31" s="3">
+        <f>((Z31-AA31)^2)/AA31</f>
+        <v>0.15642760036995587</v>
+      </c>
+    </row>
+    <row r="32" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>35</v>
+      </c>
+      <c r="T32" s="3">
+        <v>45</v>
+      </c>
+      <c r="U32" s="1">
+        <v>18</v>
+      </c>
+      <c r="V32" s="35">
+        <f t="shared" si="4"/>
+        <v>-0.86841427522522752</v>
+      </c>
+      <c r="W32" s="40">
+        <f t="shared" si="5"/>
+        <v>0.19258379140256363</v>
+      </c>
+      <c r="X32" s="39">
+        <f t="shared" si="7"/>
+        <v>0.12364863477253316</v>
+      </c>
+      <c r="Y32" s="8">
+        <f t="shared" si="6"/>
+        <v>20.896619276558102</v>
+      </c>
+      <c r="Z32" s="3">
+        <f>U32</f>
+        <v>18</v>
+      </c>
+      <c r="AA32" s="8">
+        <f>Y32</f>
+        <v>20.896619276558102</v>
+      </c>
+      <c r="AB32" s="3">
+        <f t="shared" ref="AB32:AB37" si="8">((Z32-AA32)^2)/AA32</f>
+        <v>0.40151964881421581</v>
+      </c>
+      <c r="AD32" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE32" s="23">
+        <f>AD30+(AD28-AD30)*((AE30-AE29)/(AE30-AE28))</f>
+        <v>0.93978794968158852</v>
+      </c>
+    </row>
+    <row r="33" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>40</v>
+      </c>
+      <c r="T33" s="3">
+        <v>40</v>
+      </c>
+      <c r="U33" s="1">
+        <v>35</v>
+      </c>
+      <c r="V33" s="35">
+        <f t="shared" si="4"/>
+        <v>-0.25305992506563252</v>
+      </c>
+      <c r="W33" s="40">
+        <f t="shared" si="5"/>
+        <v>0.40011095313785755</v>
+      </c>
+      <c r="X33" s="39">
+        <f t="shared" si="7"/>
+        <v>0.20752716173529392</v>
+      </c>
+      <c r="Y33" s="8">
+        <f t="shared" si="6"/>
+        <v>35.072090333264676</v>
+      </c>
+      <c r="Z33" s="3">
+        <f>U33</f>
+        <v>35</v>
+      </c>
+      <c r="AA33" s="8">
+        <f t="shared" ref="AA33:AA37" si="9">Y33</f>
+        <v>35.072090333264676</v>
+      </c>
+      <c r="AB33" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4818096386125021E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>45</v>
+      </c>
+      <c r="T34" s="3">
+        <v>35</v>
+      </c>
+      <c r="U34" s="1">
+        <v>42</v>
+      </c>
+      <c r="V34" s="35">
+        <f t="shared" si="4"/>
+        <v>0.36229442509396242</v>
+      </c>
+      <c r="W34" s="40">
+        <f t="shared" si="5"/>
+        <v>0.64143398812533947</v>
+      </c>
+      <c r="X34" s="39">
+        <f t="shared" si="7"/>
+        <v>0.24132303498748192</v>
+      </c>
+      <c r="Y34" s="8">
+        <f t="shared" si="6"/>
+        <v>40.783592912884444</v>
+      </c>
+      <c r="Z34" s="3">
+        <f>U34</f>
+        <v>42</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="9"/>
+        <v>40.783592912884444</v>
+      </c>
+      <c r="AB34" s="3">
+        <f t="shared" si="8"/>
+        <v>3.6280427885437685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>50</v>
+      </c>
+      <c r="T35" s="3">
+        <v>30</v>
+      </c>
+      <c r="U35" s="1">
+        <v>32</v>
+      </c>
+      <c r="V35" s="35">
+        <f t="shared" si="4"/>
+        <v>0.97764877525355731</v>
+      </c>
+      <c r="W35" s="40">
+        <f t="shared" si="5"/>
+        <v>0.83587596754324955</v>
+      </c>
+      <c r="X35" s="39">
+        <f t="shared" si="7"/>
+        <v>0.19444197941791008</v>
+      </c>
+      <c r="Y35" s="8">
+        <f t="shared" si="6"/>
+        <v>32.860694521626804</v>
+      </c>
+      <c r="Z35" s="3">
+        <f>U35</f>
+        <v>32</v>
+      </c>
+      <c r="AA35" s="8">
+        <f t="shared" si="9"/>
+        <v>32.860694521626804</v>
+      </c>
+      <c r="AB35" s="3">
+        <f t="shared" si="8"/>
+        <v>2.2543499775114308E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S36" s="3">
+        <v>55</v>
+      </c>
+      <c r="T36" s="3">
+        <v>25</v>
+      </c>
+      <c r="U36" s="1">
+        <v>20</v>
+      </c>
+      <c r="V36" s="35">
+        <f t="shared" si="4"/>
+        <v>1.5930031254131523</v>
+      </c>
+      <c r="W36" s="40">
+        <f t="shared" si="5"/>
+        <v>0.94442025504548988</v>
+      </c>
+      <c r="X36" s="39">
+        <f t="shared" si="7"/>
+        <v>0.10854428750224032</v>
+      </c>
+      <c r="Y36" s="8">
+        <f t="shared" si="6"/>
+        <v>18.343984587878616</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="8">
+        <f t="shared" si="9"/>
+        <v>18.343984587878616</v>
+      </c>
+      <c r="AB36" s="3">
+        <f t="shared" si="8"/>
+        <v>0.14949789300388308</v>
+      </c>
+    </row>
+    <row r="37" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S37" s="3">
+        <v>60</v>
+      </c>
+      <c r="T37" s="3">
+        <v>20</v>
+      </c>
+      <c r="U37" s="1">
+        <v>9</v>
+      </c>
+      <c r="V37" s="35">
+        <f t="shared" si="4"/>
+        <v>2.2083574755727473</v>
+      </c>
+      <c r="W37" s="40">
+        <f t="shared" si="5"/>
+        <v>0.98639031816490164</v>
+      </c>
+      <c r="X37" s="39">
+        <f t="shared" si="7"/>
+        <v>4.197006311941176E-2</v>
+      </c>
+      <c r="Y37" s="8">
+        <f t="shared" si="6"/>
+        <v>7.0929406671805877</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA37" s="8">
+        <f>SUM(Y37:Y38)</f>
+        <v>9.3929768973122112</v>
+      </c>
+      <c r="AB37" s="3">
+        <f t="shared" si="8"/>
+        <v>1.6441096737427552E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S38" s="3">
+        <v>65</v>
+      </c>
+      <c r="T38" s="3">
+        <v>15</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="35">
+        <f t="shared" si="4"/>
+        <v>2.8237118257323424</v>
+      </c>
+      <c r="W38" s="40">
+        <f t="shared" si="5"/>
+        <v>0.9976264477212724</v>
+      </c>
+      <c r="X38" s="39">
+        <f>1-W37</f>
+        <v>1.3609681835098364E-2</v>
+      </c>
+      <c r="Y38" s="8">
+        <f t="shared" si="6"/>
+        <v>2.3000362301316235</v>
+      </c>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="X39" s="23">
+        <f>SUM(X29:X38)</f>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="36">
+        <f>SUM(Y29:Y38)</f>
+        <v>169</v>
+      </c>
+      <c r="Z39" s="23">
+        <f>SUM(Z29:Z38)</f>
+        <v>169</v>
+      </c>
+      <c r="AA39" s="36">
+        <f>SUM(AA29:AA38)</f>
+        <v>169.00000000000003</v>
+      </c>
+      <c r="AB39" s="23">
+        <f>SUM(AB29:AB38)</f>
+        <v>0.78285834754989558</v>
+      </c>
+    </row>
+    <row r="40" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AB40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46"/>
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+      <c r="AV40" s="46"/>
+      <c r="AW40" s="46"/>
+      <c r="AX40" s="46"/>
+    </row>
+    <row r="41" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="47"/>
+      <c r="AL41" s="47"/>
+      <c r="AM41" s="47"/>
+      <c r="AN41" s="48"/>
+      <c r="AO41" s="46"/>
+      <c r="AP41" s="46"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
+      <c r="AT41" s="46"/>
+      <c r="AU41" s="46"/>
+      <c r="AV41" s="46"/>
+      <c r="AW41" s="46"/>
+      <c r="AX41" s="46"/>
+    </row>
+    <row r="42" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="44"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="46"/>
+      <c r="AL42" s="46"/>
+      <c r="AM42" s="46"/>
+      <c r="AN42" s="46"/>
+      <c r="AO42" s="46"/>
+      <c r="AP42" s="46"/>
+      <c r="AQ42" s="46"/>
+      <c r="AR42" s="46"/>
+      <c r="AS42" s="46"/>
+      <c r="AT42" s="46"/>
+      <c r="AU42" s="46"/>
+      <c r="AV42" s="46"/>
+      <c r="AW42" s="46"/>
+      <c r="AX42" s="46"/>
+    </row>
+    <row r="43" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="46"/>
+      <c r="AM43" s="46"/>
+      <c r="AN43" s="46"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="46"/>
+      <c r="AQ43" s="46"/>
+      <c r="AR43" s="46"/>
+      <c r="AS43" s="46"/>
+      <c r="AT43" s="46"/>
+      <c r="AU43" s="46"/>
+      <c r="AV43" s="46"/>
+      <c r="AW43" s="46"/>
+      <c r="AX43" s="46"/>
+    </row>
+    <row r="44" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="44"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="51"/>
+      <c r="AK44" s="46"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="46"/>
+      <c r="AO44" s="46"/>
+      <c r="AP44" s="46"/>
+      <c r="AQ44" s="46"/>
+      <c r="AR44" s="46"/>
+      <c r="AS44" s="46"/>
+      <c r="AT44" s="46"/>
+      <c r="AU44" s="46"/>
+      <c r="AV44" s="46"/>
+      <c r="AW44" s="46"/>
+      <c r="AX44" s="46"/>
+    </row>
+    <row r="45" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="44"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="51"/>
+      <c r="AK45" s="46"/>
+      <c r="AL45" s="51"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="46"/>
+      <c r="AO45" s="46"/>
+      <c r="AP45" s="46"/>
+      <c r="AQ45" s="46"/>
+      <c r="AR45" s="46"/>
+      <c r="AS45" s="46"/>
+      <c r="AT45" s="46"/>
+      <c r="AU45" s="46"/>
+      <c r="AV45" s="46"/>
+      <c r="AW45" s="46"/>
+      <c r="AX45" s="46"/>
+    </row>
+    <row r="46" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="44"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="51"/>
+      <c r="AK46" s="46"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="46"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="46"/>
+      <c r="AQ46" s="46"/>
+      <c r="AR46" s="46"/>
+      <c r="AS46" s="46"/>
+      <c r="AT46" s="46"/>
+      <c r="AU46" s="46"/>
+      <c r="AV46" s="46"/>
+      <c r="AW46" s="46"/>
+      <c r="AX46" s="46"/>
+    </row>
+    <row r="47" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="44"/>
+      <c r="AE47" s="49"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
+      <c r="AI47" s="50"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="46"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="46"/>
+      <c r="AQ47" s="46"/>
+      <c r="AR47" s="46"/>
+      <c r="AS47" s="46"/>
+      <c r="AT47" s="46"/>
+      <c r="AU47" s="46"/>
+      <c r="AV47" s="46"/>
+      <c r="AW47" s="46"/>
+      <c r="AX47" s="46"/>
+    </row>
+    <row r="48" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="44"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="52"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="46"/>
+      <c r="AQ48" s="46"/>
+      <c r="AR48" s="46"/>
+      <c r="AS48" s="46"/>
+      <c r="AT48" s="46"/>
+      <c r="AU48" s="46"/>
+      <c r="AV48" s="46"/>
+      <c r="AW48" s="46"/>
+      <c r="AX48" s="46"/>
+    </row>
+    <row r="49" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="44"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="46"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="46"/>
+      <c r="AQ49" s="46"/>
+      <c r="AR49" s="46"/>
+      <c r="AS49" s="46"/>
+      <c r="AT49" s="46"/>
+      <c r="AU49" s="46"/>
+      <c r="AV49" s="46"/>
+      <c r="AW49" s="46"/>
+      <c r="AX49" s="46"/>
+    </row>
+    <row r="50" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="44"/>
+      <c r="AE50" s="49"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="51"/>
+      <c r="AK50" s="46"/>
+      <c r="AL50" s="51"/>
+      <c r="AM50" s="52"/>
+      <c r="AN50" s="46"/>
+      <c r="AO50" s="46"/>
+      <c r="AP50" s="46"/>
+      <c r="AQ50" s="46"/>
+      <c r="AR50" s="46"/>
+      <c r="AS50" s="46"/>
+      <c r="AT50" s="46"/>
+      <c r="AU50" s="46"/>
+      <c r="AV50" s="46"/>
+      <c r="AW50" s="46"/>
+      <c r="AX50" s="46"/>
+    </row>
+    <row r="51" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AE51" s="49"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="51"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="51"/>
+      <c r="AM51" s="52"/>
+      <c r="AN51" s="46"/>
+      <c r="AO51" s="46"/>
+      <c r="AP51" s="46"/>
+      <c r="AQ51" s="46"/>
+      <c r="AR51" s="46"/>
+      <c r="AS51" s="46"/>
+      <c r="AT51" s="46"/>
+      <c r="AU51" s="46"/>
+      <c r="AV51" s="46"/>
+      <c r="AW51" s="46"/>
+      <c r="AX51" s="46"/>
+    </row>
+    <row r="52" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="46"/>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="52"/>
+      <c r="AN52" s="46"/>
+      <c r="AO52" s="46"/>
+      <c r="AP52" s="46"/>
+      <c r="AQ52" s="46"/>
+      <c r="AR52" s="46"/>
+      <c r="AS52" s="46"/>
+      <c r="AT52" s="46"/>
+      <c r="AU52" s="46"/>
+      <c r="AV52" s="46"/>
+      <c r="AW52" s="46"/>
+      <c r="AX52" s="46"/>
+    </row>
+    <row r="53" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE53" s="49"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="50"/>
+      <c r="AH53" s="50"/>
+      <c r="AI53" s="50"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="46"/>
+      <c r="AL53" s="51"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="46"/>
+      <c r="AO53" s="46"/>
+      <c r="AP53" s="46"/>
+      <c r="AQ53" s="46"/>
+      <c r="AR53" s="46"/>
+      <c r="AS53" s="46"/>
+      <c r="AT53" s="46"/>
+      <c r="AU53" s="46"/>
+      <c r="AV53" s="46"/>
+      <c r="AW53" s="46"/>
+      <c r="AX53" s="46"/>
+    </row>
+    <row r="54" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE54" s="49"/>
+      <c r="AF54" s="46"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="50"/>
+      <c r="AI54" s="50"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="46"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="46"/>
+      <c r="AO54" s="46"/>
+      <c r="AP54" s="46"/>
+      <c r="AQ54" s="46"/>
+      <c r="AR54" s="46"/>
+      <c r="AS54" s="46"/>
+      <c r="AT54" s="46"/>
+      <c r="AU54" s="46"/>
+      <c r="AV54" s="46"/>
+      <c r="AW54" s="46"/>
+      <c r="AX54" s="46"/>
+    </row>
+    <row r="55" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE55" s="49"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="51"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="46"/>
+      <c r="AR55" s="46"/>
+      <c r="AS55" s="46"/>
+      <c r="AT55" s="46"/>
+      <c r="AU55" s="46"/>
+      <c r="AV55" s="46"/>
+      <c r="AW55" s="46"/>
+      <c r="AX55" s="46"/>
+    </row>
+    <row r="56" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE56" s="49"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="50"/>
+      <c r="AI56" s="50"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="46"/>
+      <c r="AL56" s="46"/>
+      <c r="AM56" s="46"/>
+      <c r="AN56" s="46"/>
+      <c r="AO56" s="46"/>
+      <c r="AP56" s="46"/>
+      <c r="AQ56" s="46"/>
+      <c r="AR56" s="46"/>
+      <c r="AS56" s="46"/>
+      <c r="AT56" s="46"/>
+      <c r="AU56" s="46"/>
+      <c r="AV56" s="46"/>
+      <c r="AW56" s="46"/>
+      <c r="AX56" s="46"/>
+    </row>
+    <row r="57" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="51"/>
+      <c r="AK57" s="46"/>
+      <c r="AL57" s="46"/>
+      <c r="AM57" s="46"/>
+      <c r="AN57" s="46"/>
+      <c r="AO57" s="46"/>
+      <c r="AP57" s="46"/>
+      <c r="AQ57" s="46"/>
+      <c r="AR57" s="46"/>
+      <c r="AS57" s="46"/>
+      <c r="AT57" s="46"/>
+      <c r="AU57" s="46"/>
+      <c r="AV57" s="46"/>
+      <c r="AW57" s="46"/>
+      <c r="AX57" s="46"/>
+    </row>
+    <row r="58" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="53"/>
+      <c r="AI58" s="46"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="46"/>
+      <c r="AL58" s="46"/>
+      <c r="AM58" s="46"/>
+      <c r="AN58" s="46"/>
+      <c r="AO58" s="46"/>
+      <c r="AP58" s="46"/>
+      <c r="AQ58" s="46"/>
+      <c r="AR58" s="46"/>
+      <c r="AS58" s="46"/>
+      <c r="AT58" s="46"/>
+      <c r="AU58" s="46"/>
+      <c r="AV58" s="46"/>
+      <c r="AW58" s="46"/>
+      <c r="AX58" s="46"/>
+    </row>
+    <row r="59" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="46"/>
+      <c r="AM59" s="46"/>
+      <c r="AN59" s="46"/>
+      <c r="AO59" s="46"/>
+      <c r="AP59" s="46"/>
+      <c r="AQ59" s="46"/>
+      <c r="AR59" s="46"/>
+      <c r="AS59" s="46"/>
+      <c r="AT59" s="46"/>
+      <c r="AU59" s="46"/>
+      <c r="AV59" s="46"/>
+      <c r="AW59" s="46"/>
+      <c r="AX59" s="46"/>
+    </row>
+    <row r="60" spans="19:50" x14ac:dyDescent="0.2">
+      <c r="AE60" s="46"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="46"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="46"/>
+      <c r="AL60" s="46"/>
+      <c r="AM60" s="46"/>
+      <c r="AN60" s="46"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="46"/>
+      <c r="AQ60" s="46"/>
+      <c r="AR60" s="46"/>
+      <c r="AS60" s="46"/>
+      <c r="AT60" s="46"/>
+      <c r="AU60" s="46"/>
+      <c r="AV60" s="46"/>
+      <c r="AW60" s="46"/>
+      <c r="AX60" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AE40:AM40"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>